--- a/tantai_test.xlsx
+++ b/tantai_test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>表1</t>
   </si>
@@ -328,6 +328,82 @@
   </si>
   <si>
     <t>アカウント登録確認画面に切り替わる</t>
+  </si>
+  <si>
+    <t>アカウント一覧</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>①トップ画面から「アカウント一覧」を押す +②対象項目を目視</t>
+  </si>
+  <si>
+    <t>データベース内のIDが全て降順で並んでいる</t>
+  </si>
+  <si>
+    <t>対象ID番号と「名前（姓）」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>対象ID番号と「名前（名）」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>対象ID番号と「カナ（姓）」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>対象ID番号と「カナ（名）」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>対象ID番号と「メールアドレス」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>対象ID番号の「性別」が０なら男で、１なら女になっている</t>
+  </si>
+  <si>
+    <t>対象ID番号の「アカウント権限」が０なら一般で、１なら管理者になっている</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>対象ID番号の「削除フラグ」が０なら有効で、１なら無効、NULLはNULLになっている</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>対象ID番号と「登録日時」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>対象ID番号と「更新日時」がデータベースの内容と一致している</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>全ての行に「更新」、「削除」ボタンが表示されいている</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>更新ボタンを押す</t>
+  </si>
+  <si>
+    <t>更新画面に切り替わる</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>削除ボタンを押す</t>
+  </si>
+  <si>
+    <t>削除画面に切り替わる</t>
   </si>
 </sst>
 </file>
@@ -524,7 +600,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -600,10 +676,7 @@
     <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1686,7 +1759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:M56"/>
+  <dimension ref="A2:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -3223,22 +3296,403 @@
       <c r="M55" s="22"/>
     </row>
     <row r="56" ht="18.45" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
+      <c r="A56" s="12">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s" s="25">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s" s="15">
+        <v>92</v>
+      </c>
+      <c r="F56" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s" s="15">
+        <v>93</v>
+      </c>
+      <c r="H56" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="I56" s="16">
+        <v>45273</v>
+      </c>
+      <c r="J56" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="K56" t="s" s="15">
+        <v>22</v>
+      </c>
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
     </row>
+    <row r="57" ht="18.45" customHeight="1">
+      <c r="A57" s="12">
+        <v>55</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" t="s" s="20">
+        <v>95</v>
+      </c>
+      <c r="I57" s="21">
+        <v>45273</v>
+      </c>
+      <c r="J57" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="K57" t="s" s="20">
+        <v>22</v>
+      </c>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+    </row>
+    <row r="58" ht="18.45" customHeight="1">
+      <c r="A58" s="12">
+        <v>56</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" t="s" s="15">
+        <v>23</v>
+      </c>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" t="s" s="15">
+        <v>96</v>
+      </c>
+      <c r="I58" s="16">
+        <v>45273</v>
+      </c>
+      <c r="J58" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="K58" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+    </row>
+    <row r="59" ht="18.45" customHeight="1">
+      <c r="A59" s="12">
+        <v>57</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" t="s" s="20">
+        <v>24</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" t="s" s="20">
+        <v>97</v>
+      </c>
+      <c r="I59" s="21">
+        <v>45273</v>
+      </c>
+      <c r="J59" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="K59" t="s" s="20">
+        <v>22</v>
+      </c>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+    </row>
+    <row r="60" ht="18.45" customHeight="1">
+      <c r="A60" s="12">
+        <v>58</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" t="s" s="15">
+        <v>98</v>
+      </c>
+      <c r="I60" s="16">
+        <v>45273</v>
+      </c>
+      <c r="J60" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="K60" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+    </row>
+    <row r="61" ht="18.45" customHeight="1">
+      <c r="A61" s="12">
+        <v>59</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" t="s" s="20">
+        <v>26</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" t="s" s="20">
+        <v>99</v>
+      </c>
+      <c r="I61" s="21">
+        <v>45273</v>
+      </c>
+      <c r="J61" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="K61" t="s" s="20">
+        <v>22</v>
+      </c>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+    </row>
+    <row r="62" ht="18.45" customHeight="1">
+      <c r="A62" s="12">
+        <v>60</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" t="s" s="15">
+        <v>100</v>
+      </c>
+      <c r="I62" s="16">
+        <v>45273</v>
+      </c>
+      <c r="J62" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="K62" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+    </row>
+    <row r="63" ht="18.45" customHeight="1">
+      <c r="A63" s="12">
+        <v>61</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" t="s" s="20">
+        <v>34</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" t="s" s="20">
+        <v>101</v>
+      </c>
+      <c r="I63" s="21">
+        <v>45273</v>
+      </c>
+      <c r="J63" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="K63" t="s" s="20">
+        <v>22</v>
+      </c>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+    </row>
+    <row r="64" ht="18.45" customHeight="1">
+      <c r="A64" s="12">
+        <v>62</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" t="s" s="15">
+        <v>102</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" t="s" s="15">
+        <v>103</v>
+      </c>
+      <c r="I64" s="16">
+        <v>45273</v>
+      </c>
+      <c r="J64" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="K64" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+    </row>
+    <row r="65" ht="18.45" customHeight="1">
+      <c r="A65" s="12">
+        <v>63</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" t="s" s="20">
+        <v>105</v>
+      </c>
+      <c r="I65" s="21">
+        <v>45273</v>
+      </c>
+      <c r="J65" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="K65" t="s" s="20">
+        <v>22</v>
+      </c>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+    </row>
+    <row r="66" ht="18.45" customHeight="1">
+      <c r="A66" s="12">
+        <v>64</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" t="s" s="15">
+        <v>106</v>
+      </c>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" t="s" s="15">
+        <v>107</v>
+      </c>
+      <c r="I66" s="16">
+        <v>45273</v>
+      </c>
+      <c r="J66" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="K66" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+    </row>
+    <row r="67" ht="18.45" customHeight="1">
+      <c r="A67" s="12">
+        <v>65</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" t="s" s="20">
+        <v>108</v>
+      </c>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="I67" s="21">
+        <v>45273</v>
+      </c>
+      <c r="J67" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="K67" t="s" s="20">
+        <v>22</v>
+      </c>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+    </row>
+    <row r="68" ht="18.45" customHeight="1">
+      <c r="A68" s="12">
+        <v>66</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" t="s" s="15">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s" s="15">
+        <v>87</v>
+      </c>
+      <c r="E68" t="s" s="15">
+        <v>110</v>
+      </c>
+      <c r="F68" s="14"/>
+      <c r="G68" t="s" s="15">
+        <v>111</v>
+      </c>
+      <c r="H68" t="s" s="15">
+        <v>112</v>
+      </c>
+      <c r="I68" s="16">
+        <v>45273</v>
+      </c>
+      <c r="J68" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="K68" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+    </row>
+    <row r="69" ht="18.45" customHeight="1">
+      <c r="A69" s="12">
+        <v>67</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" t="s" s="20">
+        <v>113</v>
+      </c>
+      <c r="F69" s="19"/>
+      <c r="G69" t="s" s="20">
+        <v>114</v>
+      </c>
+      <c r="H69" t="s" s="20">
+        <v>115</v>
+      </c>
+      <c r="I69" s="21">
+        <v>45273</v>
+      </c>
+      <c r="J69" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="K69" t="s" s="20">
+        <v>22</v>
+      </c>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="40">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="D18:D26"/>
     <mergeCell ref="H18:H23"/>
@@ -3272,6 +3726,13 @@
     <mergeCell ref="H46:H54"/>
     <mergeCell ref="C15:C54"/>
     <mergeCell ref="B3:B55"/>
+    <mergeCell ref="D56:D67"/>
+    <mergeCell ref="C56:C67"/>
+    <mergeCell ref="G56:G67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="F56:F69"/>
+    <mergeCell ref="B56:B69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
